--- a/kittyserver/gametools/parseExcelTool/Excel/OrderFacilities.xlsx
+++ b/kittyserver/gametools/parseExcelTool/Excel/OrderFacilities.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="305">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1636,6 +1636,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>order_Sugarbunnies_Play</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_Pekkle_Play</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>order_Pochacco_Play</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1648,6 +1656,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>order_Usahana_Play</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_Star_Play</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_Patty_Jimmy_Play</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>order_Purin_Play</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1657,374 +1677,6 @@
   </si>
   <si>
     <t>order_Monkichi_Play</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_Star_Play1,order_Star_Play2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们采购中心的工作人员又苦又累，可以为我们送点吃的吗？</t>
-  </si>
-  <si>
-    <r>
-      <t>今天的进出的货物真多，累的不行了，好饿啊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>…</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>经营好一个游乐园真的不容易啊，我每天只睡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小时啊！</t>
-    </r>
-  </si>
-  <si>
-    <t>今年的收成真好，风调雨顺，水果特别的新鲜，有空来尝尝哦。</t>
-  </si>
-  <si>
-    <t>仓库都放不下了，但还是需要点吃的，又饿又渴。</t>
-  </si>
-  <si>
-    <t>我们一直在转圈，你追我赶，其乐无穷！</t>
-  </si>
-  <si>
-    <t>今天的生意真不错，好多情侣来租车，开心极了，正好赚点钱买东西。</t>
-  </si>
-  <si>
-    <t>好多游客都向往天空，我们的飞艇安全又美观，小伙伴朋友好开心哇。</t>
-  </si>
-  <si>
-    <t>快来看表演吧，我们还需要点东西，麻烦帮忙送来吧。</t>
-  </si>
-  <si>
-    <t>玩累了吗？可以来我们这里坐坐，顶好的咖啡哦。</t>
-  </si>
-  <si>
-    <r>
-      <t>大人，小孩都喜欢坐摩天轮呢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>~</t>
-    </r>
-  </si>
-  <si>
-    <t>专业又帅气的面点师正在为您烘焙美味的食物。</t>
-  </si>
-  <si>
-    <t>饿了吗？这里有很多不错的美食哦，美乐蒂在这里等你哦。</t>
-  </si>
-  <si>
-    <r>
-      <t>哇，又飞起来了，速度好快啊，还要再玩一次，不两次</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>…</t>
-    </r>
-  </si>
-  <si>
-    <t>听说这个摩天轮更大更高呢，俯视的感觉真好。</t>
-  </si>
-  <si>
-    <t>跑来跑去真是累啊，越是有难度，越加感兴趣，吃饱了继续找出路。</t>
-  </si>
-  <si>
-    <r>
-      <t>有冰激凌吗？随便来点什么都可以啦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>…</t>
-    </r>
-  </si>
-  <si>
-    <t>哇，哇，哇，好刺激啊，我还没玩够呢。</t>
-  </si>
-  <si>
-    <t>每天这里都很火爆呢，我们的店员总是不停忙碌，痛，并快乐着。</t>
-  </si>
-  <si>
-    <t>心惊肉跳，这节奏太快啦，大喊大叫，快没力气了。</t>
-  </si>
-  <si>
-    <t>我头都晕了呢，有晕船药吗？</t>
-  </si>
-  <si>
-    <t>这个速度好快啊，转得我头晕呢，有药吗？</t>
-  </si>
-  <si>
-    <t>我左转转，右转转，哈哈哈，撞你，撞你，撞坏你的车。</t>
-  </si>
-  <si>
-    <r>
-      <t>一秒一个，连中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>79</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>了，加把劲，争取破百。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>有人陪我一起玩吗？好怕怕哦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>…</t>
-    </r>
-  </si>
-  <si>
-    <t>帅哥，可以帮我拍张照吗？看我这个姿势美不？</t>
-  </si>
-  <si>
-    <t>快看，有海狮表演耶，能再靠近点看吗？</t>
-  </si>
-  <si>
-    <t>妈妈，我想要个帕恰狗，好可爱呢！</t>
-  </si>
-  <si>
-    <t>我们在看美乐蒂舞台表演呢，不想错过呀。</t>
-  </si>
-  <si>
-    <t>呀，呀，呀，这个迷营有点简单，跑完就去贝克鸭那边玩。</t>
-  </si>
-  <si>
-    <t>喜欢探险的小伙伴跟我一起上，不过要先准备好物品哦。</t>
-  </si>
-  <si>
-    <t>这么好看的马戏团表演，可以让我客串一下吗？我请大伙吃东西。</t>
-  </si>
-  <si>
-    <t>玩得我好累好累啊，休息一会，就差点吃的了，什么时候能送到呀？</t>
-  </si>
-  <si>
-    <t>我们的饮品很受欢迎哦，你需要来点吗？</t>
-  </si>
-  <si>
-    <r>
-      <t>这里有小朋友最爱吃的甜品哦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>…</t>
-    </r>
-  </si>
-  <si>
-    <t>饿了没？各种蛋糕和面包，应有尽有！</t>
-  </si>
-  <si>
-    <t>漂亮的饰品，高等衣料，爱美的你，怎么能没有呢？</t>
-  </si>
-  <si>
-    <t>累了，饿了就来吃点东西吧，可以打包带走哦。</t>
-  </si>
-  <si>
-    <t>真正的中华美食，一碗也许真的不够吃呀。</t>
-  </si>
-  <si>
-    <t>我们专注也打造精品，精工细作，快来挑选吧。</t>
-  </si>
-  <si>
-    <t>当烧烤遇上小炒，再加点啤酒饮料，时刻享受美食。</t>
-  </si>
-  <si>
-    <r>
-      <t>这里是凯蒂的世界，这里还是美食的世界</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>…</t>
-    </r>
-  </si>
-  <si>
-    <t>这不仅仅是装饰，更是身份的象征，你值得拥有！</t>
-  </si>
-  <si>
-    <t>新潮、时尚、前沿、高端，穿出有品味的你。</t>
-  </si>
-  <si>
-    <t>忙忙碌碌，熙熙攘攘，生意兴隆，人财两旺。</t>
-  </si>
-  <si>
-    <t>今天你来玩了吗？玩游戏还有丰厚奖励哦。</t>
-  </si>
-  <si>
-    <t>试试今天的运气吧，祝你好运常在。</t>
-  </si>
-  <si>
-    <t>喜欢星星和月亮吗？这里的夜色更加迷人。</t>
-  </si>
-  <si>
-    <r>
-      <t>我们都是一家人，相亲相爱的一家人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>…</t>
-    </r>
-  </si>
-  <si>
-    <t>大赌伤身，小赌怡情</t>
-  </si>
-  <si>
-    <t>乐园的生意越来越好了，真的好开心哇。</t>
-  </si>
-  <si>
-    <t>我是大眼蛙，专吃害虫，大家都很喜欢我。</t>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的手都快举不起来了，举不起，举不起啦，补充能量！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>跳一小时消耗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>卡路里，好像真的能减肥呢，一会吃饱了才有力气减。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>边转边看星星，对星座的认识越来越多了呢。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩咖啡杯的游客需要点物品，请快点为我们配送吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>我说，我的眼里只有你</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>亲爱的，喜欢我陪你一起玩吗？</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命在于运动，给你一次锻炼的机会，快点帮我送点东西来哦。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈哈哈，飞车的感觉好过瘾啊，就是排队得等一会。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2032,7 +1684,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2120,20 +1772,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2426,7 +2064,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2477,12 +2115,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="204">
@@ -2989,32 +2621,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="59.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9" style="3"/>
+    <col min="8" max="9" width="9" style="3"/>
     <col min="10" max="10" width="16.375" style="3" customWidth="1"/>
     <col min="11" max="11" width="22.25" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" customHeight="1">
+    <row r="1" spans="1:7" ht="30.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>141</v>
       </c>
@@ -3036,11 +2667,8 @@
       <c r="G1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3062,11 +2690,8 @@
       <c r="G2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3088,11 +2713,8 @@
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
@@ -3114,16 +2736,13 @@
       <c r="G4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3140,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -3151,7 +2770,7 @@
         <v>291</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>73</v>
@@ -3162,11 +2781,8 @@
       <c r="G7" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="1">
         <v>42</v>
       </c>
@@ -3185,11 +2801,8 @@
       <c r="G8" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="H8" s="17" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="1">
         <v>10010001</v>
       </c>
@@ -3208,11 +2821,8 @@
       <c r="G9" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="1">
         <v>10010008</v>
       </c>
@@ -3234,11 +2844,8 @@
       <c r="G10" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="1">
         <v>10010036</v>
       </c>
@@ -3257,11 +2864,8 @@
       <c r="G11" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="12" spans="1:7" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="1">
         <v>10010012</v>
       </c>
@@ -3272,7 +2876,7 @@
         <v>292</v>
       </c>
       <c r="D12" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="1" t="s">
@@ -3281,11 +2885,8 @@
       <c r="G12" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>5</v>
       </c>
@@ -3296,7 +2897,7 @@
         <v>291</v>
       </c>
       <c r="D13" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>151</v>
@@ -3304,11 +2905,8 @@
       <c r="G13" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H13" s="17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>6</v>
       </c>
@@ -3327,11 +2925,8 @@
       <c r="G14" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="10" t="s">
         <v>7</v>
       </c>
@@ -3350,11 +2945,8 @@
       <c r="G15" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="H15" s="17" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="10" t="s">
         <v>8</v>
       </c>
@@ -3373,11 +2965,8 @@
       <c r="G16" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="H16" s="17" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
@@ -3396,19 +2985,16 @@
       <c r="G17" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="H17" s="17" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>291</v>
+      <c r="C18" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="D18" s="7">
         <v>11</v>
@@ -3422,11 +3008,8 @@
       <c r="G18" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="H18" s="17" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="10" t="s">
         <v>11</v>
       </c>
@@ -3445,11 +3028,8 @@
       <c r="G19" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="H19" s="17" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="10" t="s">
         <v>12</v>
       </c>
@@ -3471,11 +3051,8 @@
       <c r="G20" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="10" t="s">
         <v>13</v>
       </c>
@@ -3494,11 +3071,8 @@
       <c r="G21" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="H21" s="17" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="10" t="s">
         <v>14</v>
       </c>
@@ -3517,19 +3091,16 @@
       <c r="G22" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="H22" s="17" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>291</v>
+      <c r="C23" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="D23" s="7">
         <v>16</v>
@@ -3540,19 +3111,16 @@
       <c r="G23" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="H23" s="17" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>291</v>
+      <c r="C24" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="D24" s="7">
         <v>17</v>
@@ -3563,11 +3131,8 @@
       <c r="G24" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="H24" s="17" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="10" t="s">
         <v>17</v>
       </c>
@@ -3575,7 +3140,7 @@
         <v>100</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D25" s="7">
         <v>18</v>
@@ -3586,11 +3151,8 @@
       <c r="G25" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="H25" s="17" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="10" t="s">
         <v>18</v>
       </c>
@@ -3598,7 +3160,7 @@
         <v>101</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D26" s="7">
         <v>20</v>
@@ -3609,11 +3171,8 @@
       <c r="G26" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="H26" s="17" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="10" t="s">
         <v>19</v>
       </c>
@@ -3632,19 +3191,16 @@
       <c r="G27" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="H27" s="17" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>291</v>
+      <c r="C28" s="6" t="s">
+        <v>299</v>
       </c>
       <c r="D28" s="7">
         <v>22</v>
@@ -3655,11 +3211,8 @@
       <c r="G28" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="17" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="10" t="s">
         <v>21</v>
       </c>
@@ -3667,7 +3220,7 @@
         <v>104</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D29" s="7">
         <v>24</v>
@@ -3678,11 +3231,8 @@
       <c r="G29" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="H29" s="17" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="10" t="s">
         <v>22</v>
       </c>
@@ -3701,11 +3251,8 @@
       <c r="G30" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="H30" s="17" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="10" t="s">
         <v>23</v>
       </c>
@@ -3724,11 +3271,8 @@
       <c r="G31" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="H31" s="17" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="10" t="s">
         <v>24</v>
       </c>
@@ -3747,11 +3291,8 @@
       <c r="G32" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="H32" s="17" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="10" t="s">
         <v>25</v>
       </c>
@@ -3759,7 +3300,7 @@
         <v>108</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D33" s="7">
         <v>29</v>
@@ -3770,19 +3311,16 @@
       <c r="G33" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="H33" s="17" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>291</v>
+      <c r="C34" s="6" t="s">
+        <v>301</v>
       </c>
       <c r="D34" s="7">
         <v>30</v>
@@ -3793,11 +3331,8 @@
       <c r="G34" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="H34" s="17" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="10" t="s">
         <v>27</v>
       </c>
@@ -3805,7 +3340,7 @@
         <v>110</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D35" s="7">
         <v>32</v>
@@ -3816,11 +3351,8 @@
       <c r="G35" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="H35" s="17" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="10" t="s">
         <v>28</v>
       </c>
@@ -3839,11 +3371,8 @@
       <c r="G36" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="H36" s="17" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="10" t="s">
         <v>29</v>
       </c>
@@ -3851,7 +3380,7 @@
         <v>112</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D37" s="7">
         <v>34</v>
@@ -3862,11 +3391,8 @@
       <c r="G37" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H37" s="17" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="10" t="s">
         <v>30</v>
       </c>
@@ -3874,7 +3400,7 @@
         <v>113</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D38" s="7">
         <v>36</v>
@@ -3885,19 +3411,16 @@
       <c r="G38" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="H38" s="17" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>291</v>
+      <c r="C39" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="D39" s="7">
         <v>37</v>
@@ -3908,11 +3431,8 @@
       <c r="G39" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="H39" s="17" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="10" t="s">
         <v>32</v>
       </c>
@@ -3931,11 +3451,8 @@
       <c r="G40" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="H40" s="17" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="10" t="s">
         <v>33</v>
       </c>
@@ -3943,7 +3460,7 @@
         <v>116</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D41" s="7">
         <v>42</v>
@@ -3954,19 +3471,16 @@
       <c r="G41" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="H41" s="17" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>291</v>
+      <c r="C42" s="6" t="s">
+        <v>304</v>
       </c>
       <c r="D42" s="7">
         <v>46</v>
@@ -3977,11 +3491,8 @@
       <c r="G42" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="H42" s="17" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="10" t="s">
         <v>35</v>
       </c>
@@ -3989,7 +3500,7 @@
         <v>118</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D43" s="7">
         <v>48</v>
@@ -4000,11 +3511,8 @@
       <c r="G43" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="H43" s="17" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="10" t="s">
         <v>36</v>
       </c>
@@ -4012,7 +3520,7 @@
         <v>119</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D44" s="7">
         <v>52</v>
@@ -4023,11 +3531,8 @@
       <c r="G44" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="H44" s="17" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="10" t="s">
         <v>37</v>
       </c>
@@ -4035,7 +3540,7 @@
         <v>120</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D45" s="7">
         <v>54</v>
@@ -4046,11 +3551,8 @@
       <c r="G45" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="H45" s="17" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="10" t="s">
         <v>38</v>
       </c>
@@ -4069,11 +3571,8 @@
       <c r="G46" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="H46" s="17" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="10" t="s">
         <v>39</v>
       </c>
@@ -4095,11 +3594,8 @@
       <c r="G47" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="H47" s="17" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="10" t="s">
         <v>40</v>
       </c>
@@ -4107,7 +3603,7 @@
         <v>123</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D48" s="7">
         <v>5</v>
@@ -4121,11 +3617,8 @@
       <c r="G48" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="H48" s="17" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="49" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="10" t="s">
         <v>41</v>
       </c>
@@ -4147,11 +3640,8 @@
       <c r="G49" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="H49" s="17" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="50" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="10" t="s">
         <v>42</v>
       </c>
@@ -4173,11 +3663,8 @@
       <c r="G50" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="H50" s="17" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="51" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="10" t="s">
         <v>43</v>
       </c>
@@ -4185,7 +3672,7 @@
         <v>126</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D51" s="7">
         <v>26</v>
@@ -4199,11 +3686,8 @@
       <c r="G51" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="H51" s="17" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="52" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="10" t="s">
         <v>44</v>
       </c>
@@ -4225,11 +3709,8 @@
       <c r="G52" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="H52" s="17" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="53" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="10" t="s">
         <v>45</v>
       </c>
@@ -4251,11 +3732,8 @@
       <c r="G53" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="H53" s="17" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="54" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="10" t="s">
         <v>46</v>
       </c>
@@ -4277,11 +3755,8 @@
       <c r="G54" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="H54" s="17" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="55" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="10" t="s">
         <v>47</v>
       </c>
@@ -4303,11 +3778,8 @@
       <c r="G55" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="H55" s="17" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="56" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="10" t="s">
         <v>48</v>
       </c>
@@ -4329,11 +3801,8 @@
       <c r="G56" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="H56" s="17" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="57" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="10" t="s">
         <v>49</v>
       </c>
@@ -4355,11 +3824,8 @@
       <c r="G57" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="H57" s="17" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="58" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="10" t="s">
         <v>50</v>
       </c>
@@ -4378,11 +3844,8 @@
       <c r="G58" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="H58" s="17" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="59" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="10" t="s">
         <v>51</v>
       </c>
@@ -4390,7 +3853,7 @@
         <v>134</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D59" s="7">
         <v>9</v>
@@ -4401,11 +3864,8 @@
       <c r="G59" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="H59" s="17" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="60" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="10" t="s">
         <v>52</v>
       </c>
@@ -4424,11 +3884,8 @@
       <c r="G60" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="H60" s="17" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="61" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="10" t="s">
         <v>53</v>
       </c>
@@ -4447,11 +3904,8 @@
       <c r="G61" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="H61" s="17" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="62" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="10" t="s">
         <v>54</v>
       </c>
@@ -4470,11 +3924,8 @@
       <c r="G62" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="H62" s="17" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="63" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="10" t="s">
         <v>55</v>
       </c>
@@ -4493,19 +3944,16 @@
       <c r="G63" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="H63" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="64" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>291</v>
+      <c r="C64" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="D64" s="7">
         <v>3</v>
@@ -4516,11 +3964,8 @@
       <c r="G64" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="H64" s="17" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="65" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="10" t="s">
         <v>57</v>
       </c>
@@ -4528,10 +3973,10 @@
         <v>140</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D65" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>203</v>
@@ -4539,11 +3984,8 @@
       <c r="G65" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="H65" s="17" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    </row>
+    <row r="66" spans="1:7" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
